--- a/LavoroGruppo/Consegna3/PreventivoCosti.xlsx
+++ b/LavoroGruppo/Consegna3/PreventivoCosti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simog\Desktop\COME\LavoroGruppo\Consegna3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECCBC74-32BE-49B6-9216-AC9F5BF67C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3B4059-D127-4746-9B5D-06A29BBA0C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ECFC6FA3-51AE-42D1-9C7C-057CF8511AB4}"/>
   </bookViews>
@@ -222,20 +222,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,7 +554,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,10 +569,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6"/>
+      <c r="C1" s="8"/>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
@@ -581,10 +581,10 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="9">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -595,26 +595,26 @@
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="9">
         <f>75*D3</f>
-        <v>75</v>
-      </c>
-      <c r="C3" s="7" t="s">
+        <v>2250</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="4">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <f>25</f>
         <v>25</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -625,14 +625,14 @@
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <f>SUM(B2:B4)</f>
-        <v>100</v>
-      </c>
-      <c r="C5" s="7" t="s">
+        <v>2275</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
